--- a/Vanshika/All results - graph.xlsx
+++ b/Vanshika/All results - graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A2411B-098A-45AE-9A56-711F4052FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75395977-A57B-4CC1-8EF1-E2569A9D2290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE059F60-8018-4DAA-980E-D4697427E0D8}"/>
+    <workbookView xWindow="3912" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{BE059F60-8018-4DAA-980E-D4697427E0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Speakers</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>No Data Augmentation Accuracy</t>
+  </si>
+  <si>
+    <t>Baseline 1 no data augmentation</t>
+  </si>
+  <si>
+    <t>Baseline 2 data augmentation</t>
+  </si>
+  <si>
+    <t>Baseline 2 with data augmentation</t>
   </si>
 </sst>
 </file>
@@ -142,10 +151,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +195,10 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -194,37 +206,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-NZ">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>'Attention</a:t>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Evaluating the Word Recognition Accuracy of the Model</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>-is-all-you-need' Model</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-NZ">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25115966754155733"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -240,7 +227,10 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -283,73 +273,57 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$16</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:strCache>
                 <c:ptCount val="15"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>M04</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>F03</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>M12</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>M01</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>M07</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>F02</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>M16</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>M05</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>M11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>F04</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>M09</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>M14</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>M10</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>M08</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>F05</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Very Low</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Low</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Mild</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>High</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>M04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -407,7 +381,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB80-41CE-8E1E-46962027BEC9}"/>
+              <c16:uniqueId val="{00000000-58E5-413A-A68E-1A6D1F46ACBA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -421,6 +395,143 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Data Augmentation Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>M04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58E5-413A-A68E-1A6D1F46ACBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline 1 no data augmentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -436,131 +547,389 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$16</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:strCache>
                 <c:ptCount val="15"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>M04</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>F03</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>M12</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>M01</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>M07</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>F02</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>M16</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>M05</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>M11</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>F04</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>M09</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>M14</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>M10</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>M08</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>F05</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Very Low</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Low</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Mild</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>High</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>M04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BB80-41CE-8E1E-46962027BEC9}"/>
+              <c16:uniqueId val="{00000002-58E5-413A-A68E-1A6D1F46ACBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline 2 data augmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>M04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-58E5-413A-A68E-1A6D1F46ACBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline 2 with data augmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>M04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.1094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-58E5-413A-A68E-1A6D1F46ACBA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -574,11 +943,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="381584847"/>
-        <c:axId val="381586511"/>
+        <c:axId val="1501423263"/>
+        <c:axId val="1501424927"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="381584847"/>
+        <c:axId val="1501423263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381586511"/>
+        <c:crossAx val="1501424927"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -629,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381586511"/>
+        <c:axId val="1501424927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +1049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381584847"/>
+        <c:crossAx val="1501423263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,10 +1130,13 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1304,23 +1676,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F6523E-6991-E182-FAE6-DD7105BE13FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99416FA2-D5E7-0BF5-7BCF-32D7804EB97B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,15 +2010,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246226D5-BA3F-4D47-AF48-C0BBE114A514}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1659,193 +2031,337 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.09</v>
       </c>
+      <c r="E2" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1094</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.34</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.51</v>
       </c>
+      <c r="E3" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.24</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.34</v>
       </c>
+      <c r="E4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.40649999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.31</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.38</v>
       </c>
+      <c r="E5" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.72</v>
       </c>
+      <c r="E6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.69</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.52</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.67</v>
       </c>
+      <c r="E7" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.51</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.56000000000000005</v>
       </c>
+      <c r="E8" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.62</v>
       </c>
+      <c r="E9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.45</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.54</v>
       </c>
+      <c r="E10" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.63</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.56000000000000005</v>
       </c>
+      <c r="E11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.79</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.79</v>
       </c>
+      <c r="E12" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.76</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.79</v>
       </c>
+      <c r="E13" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.89</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.9</v>
       </c>
+      <c r="E14" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.83</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.79</v>
       </c>
+      <c r="E15" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>0.89</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.88</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.94</v>
       </c>
     </row>
   </sheetData>

--- a/Vanshika/All results - graph.xlsx
+++ b/Vanshika/All results - graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75395977-A57B-4CC1-8EF1-E2569A9D2290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07CB59B-CEEA-4660-84D1-6751ECAEB5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3912" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{BE059F60-8018-4DAA-980E-D4697427E0D8}"/>
   </bookViews>
@@ -110,10 +110,10 @@
     <t>Baseline 1 no data augmentation</t>
   </si>
   <si>
-    <t>Baseline 2 data augmentation</t>
-  </si>
-  <si>
     <t>Baseline 2 with data augmentation</t>
+  </si>
+  <si>
+    <t>Baseline 1 data augmentation</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline 2 data augmentation</c:v>
+                  <c:v>Baseline 1 data augmentation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2012,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246226D5-BA3F-4D47-AF48-C0BBE114A514}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,10 +2035,10 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/Vanshika/All results - graph.xlsx
+++ b/Vanshika/All results - graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\OneDrive\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Spech\Vanshika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07CB59B-CEEA-4660-84D1-6751ECAEB5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD04790-E1E2-4166-B0BD-E8F134034875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3912" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{BE059F60-8018-4DAA-980E-D4697427E0D8}"/>
   </bookViews>
@@ -2010,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246226D5-BA3F-4D47-AF48-C0BBE114A514}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,6 +2362,20 @@
       </c>
       <c r="G16" s="1">
         <v>0.94</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <f>SUM(C2:C16)/15</f>
+        <v>0.55599999999999994</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(D2:D16)/15</f>
+        <v>0.6093333333333335</v>
+      </c>
+      <c r="G17" s="1">
+        <f>SUM(G2:G16)/15</f>
+        <v>0.60972666666666664</v>
       </c>
     </row>
   </sheetData>
